--- a/data/2020-03-31/SCW - Weekly Competition - 2020-03-31.xlsx
+++ b/data/2020-03-31/SCW - Weekly Competition - 2020-03-31.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-03-31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254BB6BC-6AB8-482C-B0BC-A3217FDE27C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9572AD36-B1E9-451F-9330-7C0BB9D6F193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="4740" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -462,9 +462,6 @@
     <t>https://www.facebook.com/events/207898257161923/permalink/211697660115316/</t>
   </si>
   <si>
-    <t>장준호</t>
-  </si>
-  <si>
     <t>Huy Nguyen</t>
   </si>
   <si>
@@ -583,6 +580,9 @@
   </si>
   <si>
     <t>Joffie Berkowitz</t>
+  </si>
+  <si>
+    <t>Jang Junho (장준호)</t>
   </si>
 </sst>
 </file>
@@ -995,11 +995,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1220,8 +1220,8 @@
   </sheetPr>
   <dimension ref="A1:AG1098"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>20</v>
@@ -1872,7 +1872,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>21</v>
@@ -1900,7 +1900,7 @@
         <v>29.16</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
@@ -1938,7 +1938,7 @@
         <v>26.59</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
@@ -1948,7 +1948,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>34</v>
@@ -1976,7 +1976,7 @@
         <v>27.63</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M19" s="30"/>
       <c r="N19" s="30"/>
@@ -1986,7 +1986,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>34</v>
@@ -2014,7 +2014,7 @@
         <v>37.94</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
@@ -2024,7 +2024,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>21</v>
@@ -2052,7 +2052,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
@@ -2090,7 +2090,7 @@
         <v>30.01</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
@@ -2100,7 +2100,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>34</v>
@@ -2130,7 +2130,7 @@
         <v>34.1</v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M23" s="30"/>
       <c r="N23" s="30"/>
@@ -2170,7 +2170,7 @@
         <v>31.12</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M24" s="30"/>
       <c r="N24" s="30"/>
@@ -2180,7 +2180,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>21</v>
@@ -2207,10 +2207,10 @@
         <v>40.81</v>
       </c>
       <c r="K25" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L25" s="29" t="s">
         <v>158</v>
-      </c>
-      <c r="L25" s="29" t="s">
-        <v>159</v>
       </c>
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
@@ -2220,7 +2220,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>21</v>
@@ -2247,7 +2247,7 @@
         <v>42.33</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M26" s="30"/>
       <c r="N26" s="30"/>
@@ -2257,7 +2257,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>21</v>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H27" s="24">
         <v>47.24</v>
@@ -2285,7 +2285,7 @@
         <v>53.14</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
@@ -2308,10 +2308,10 @@
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>166</v>
       </c>
       <c r="I28" s="24">
         <v>58.36</v>
@@ -2323,7 +2323,7 @@
         <v>46.37</v>
       </c>
       <c r="L28" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M28" s="30"/>
       <c r="N28" s="30"/>
@@ -15296,7 +15296,9 @@
   </sheetPr>
   <dimension ref="A1:AG1059"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -15790,7 +15792,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>21</v>
@@ -15818,7 +15820,7 @@
         <v>11.34</v>
       </c>
       <c r="L14" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M14" s="54"/>
     </row>
@@ -15827,7 +15829,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="42" t="s">
         <v>21</v>
@@ -15855,7 +15857,7 @@
         <v>9.7799999999999994</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M15" s="43"/>
     </row>
@@ -24477,7 +24479,7 @@
   </sheetPr>
   <dimension ref="A1:M1051"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -24605,7 +24607,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>20</v>
@@ -24849,8 +24851,8 @@
       <c r="J11" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="94" t="s">
-        <v>181</v>
+      <c r="K11" s="92" t="s">
+        <v>180</v>
       </c>
       <c r="L11" s="31" t="s">
         <v>92</v>
@@ -35532,14 +35534,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
       <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="12.75">
@@ -35561,16 +35563,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" s="88" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="90" t="s">
         <v>170</v>
-      </c>
-      <c r="G3" s="90" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -35578,7 +35580,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="80" t="s">
         <v>34</v>
@@ -35588,7 +35590,7 @@
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75">
@@ -35596,7 +35598,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="80" t="s">
         <v>20</v>
@@ -35606,7 +35608,7 @@
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -35624,7 +35626,7 @@
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
@@ -35632,7 +35634,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="80" t="s">
         <v>34</v>
@@ -35642,7 +35644,7 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -35650,7 +35652,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="80" t="s">
         <v>20</v>
@@ -35660,7 +35662,7 @@
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">

--- a/data/2020-03-31/SCW - Weekly Competition - 2020-03-31.xlsx
+++ b/data/2020-03-31/SCW - Weekly Competition - 2020-03-31.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-03-31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9572AD36-B1E9-451F-9330-7C0BB9D6F193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378C1FA2-9C1F-463E-9DD9-87CBD7EBC957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:AG1098"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2265,8 +2265,8 @@
       <c r="D27" s="24">
         <v>53.32</v>
       </c>
-      <c r="E27" s="24">
-        <v>49.14</v>
+      <c r="E27" s="50">
+        <v>47.24</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="24" t="s">
@@ -24480,7 +24480,7 @@
   <dimension ref="A1:M1051"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -24651,8 +24651,8 @@
       <c r="D6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="24">
-        <v>58.58</v>
+      <c r="E6" s="50">
+        <v>57.85</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="37">
